--- a/Temp_Data_Storage/University_of_Gallifrey_columncorrected.xlsx
+++ b/Temp_Data_Storage/University_of_Gallifrey_columncorrected.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styler\Documents\CAIR 2025\Collected_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styler\Documents\CAIR 2025\Temp_Data_Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93CB07B8-FA25-4B16-A41B-E18A3F416CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C03CC4-622E-4FC3-9950-6967EA2C33D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24270" yWindow="960" windowWidth="24450" windowHeight="18870" xr2:uid="{A266F1E6-BBDA-418F-BF5C-DF55D8CAE583}"/>
+    <workbookView xWindow="10185" yWindow="600" windowWidth="24420" windowHeight="18870" xr2:uid="{A266F1E6-BBDA-418F-BF5C-DF55D8CAE583}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="197">
   <si>
     <t>Student_ID</t>
   </si>
@@ -634,7 +634,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -678,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -687,22 +687,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1043,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D6E2FC-E53B-4893-AB53-E91AEDAA2E83}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,8 +1099,7 @@
         <v>127</v>
       </c>
       <c r="G2" s="4">
-        <f ca="1">RAND()*100+10</f>
-        <v>31.509653798014373</v>
+        <v>36.526291284984616</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1126,8 +1122,7 @@
         <v>127</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G56" ca="1" si="0">RAND()*100+10</f>
-        <v>12.426063877909856</v>
+        <v>24.179195822537039</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1150,8 +1145,7 @@
         <v>127</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>34.353801817194295</v>
+        <v>39.360073774781348</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1174,8 +1168,7 @@
         <v>127</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>30.807110983278776</v>
+        <v>43.417078538940991</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1198,8 +1191,7 @@
         <v>127</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>98.525511375772226</v>
+        <v>102.72943558679275</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1222,8 +1214,7 @@
         <v>132</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43.574347332109319</v>
+        <v>69.487629719431766</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1244,8 +1235,7 @@
         <v>127</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>88.275736385849044</v>
+        <v>99.765885322765783</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1268,8 +1258,7 @@
         <v>128</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>21.744927080064748</v>
+        <v>49.819280597391639</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1292,8 +1281,7 @@
         <v>128</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>27.628523300275599</v>
+        <v>81.585360025636689</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1316,8 +1304,7 @@
         <v>128</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>96.903843803948845</v>
+        <v>43.554032668580135</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1338,8 +1325,7 @@
         <v>128</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>70.70592772796374</v>
+        <v>62.237651425653219</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1362,8 +1348,7 @@
         <v>131</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>32.318879843091167</v>
+        <v>10.37942533707982</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1386,8 +1371,7 @@
         <v>128</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>94.960331011851522</v>
+        <v>79.873820299883022</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1410,8 +1394,7 @@
         <v>128</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>92.936603846768108</v>
+        <v>34.689623426382965</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1434,8 +1417,7 @@
         <v>126</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>28.041322678239769</v>
+        <v>57.225528653339722</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1458,8 +1440,7 @@
         <v>126</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>52.062700676647637</v>
+        <v>91.473138338911596</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1482,8 +1463,7 @@
         <v>126</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>56.392770566097532</v>
+        <v>42.388542089181314</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1506,8 +1486,7 @@
         <v>126</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>44.781877528666612</v>
+        <v>19.575708577532072</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1530,8 +1509,7 @@
         <v>126</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>65.458571348959055</v>
+        <v>63.6721508820848</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1552,8 +1530,7 @@
         <v>126</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45.821848392439129</v>
+        <v>42.48428499530651</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1574,8 +1551,7 @@
         <v>126</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>58.792035568052071</v>
+        <v>94.259071657136957</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1598,8 +1574,7 @@
         <v>126</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>73.195738881580979</v>
+        <v>69.012559104479948</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1622,8 +1597,7 @@
         <v>129</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>59.719803653834418</v>
+        <v>105.2815353027797</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1644,8 +1618,7 @@
         <v>129</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>89.942909568198544</v>
+        <v>90.506283218669196</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1668,8 +1641,7 @@
         <v>129</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>63.022381679907923</v>
+        <v>51.669194533237111</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1692,8 +1664,7 @@
         <v>129</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>85.566480289790988</v>
+        <v>41.815150320804307</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1714,8 +1685,7 @@
         <v>129</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.161745646107185</v>
+        <v>96.547663316734358</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1738,8 +1708,7 @@
         <v>129</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>98.888388740963876</v>
+        <v>62.571773528455367</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1762,8 +1731,7 @@
         <v>129</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.413462019908929</v>
+        <v>95.797338027575776</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1786,8 +1754,7 @@
         <v>129</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>67.308980058874312</v>
+        <v>64.94070155546126</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1810,8 +1777,7 @@
         <v>125</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.243493364932704</v>
+        <v>86.817319701651627</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1834,8 +1800,7 @@
         <v>125</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>73.805440982659121</v>
+        <v>14.795974537824165</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1856,8 +1821,7 @@
         <v>125</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>78.370444946871999</v>
+        <v>48.101441636464649</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1880,8 +1844,7 @@
         <v>125</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>32.056901314745502</v>
+        <v>27.209043743957409</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1904,8 +1867,7 @@
         <v>125</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>105.07420127355678</v>
+        <v>35.403578062501012</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1928,8 +1890,7 @@
         <v>125</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>60.403967132084929</v>
+        <v>94.736320241324307</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1952,8 +1913,7 @@
         <v>125</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>41.899172515770559</v>
+        <v>88.001058279722784</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1976,8 +1936,7 @@
         <v>125</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>107.50195651248396</v>
+        <v>60.760607055120779</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1997,8 +1956,7 @@
         <v>20030524</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>91.369510588910885</v>
+        <v>108.20848935445134</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2019,8 +1977,7 @@
         <v>125</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.453925823363672</v>
+        <v>22.20900534113165</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2043,8 +2000,7 @@
         <v>125</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>89.134472482631736</v>
+        <v>83.138197050459496</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2065,8 +2021,7 @@
         <v>125</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>88.284747241636126</v>
+        <v>78.139453279590938</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2087,8 +2042,7 @@
         <v>125</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>70.295602401235712</v>
+        <v>76.463483691835563</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2109,8 +2063,7 @@
         <v>125</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>69.033126070107159</v>
+        <v>10.833867142804824</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2131,32 +2084,30 @@
         <v>125</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>88.005628058245875</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+        <v>24.059431147423929</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="7">
         <v>20040723</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="5" t="s">
         <v>125</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>42.069249851638126</v>
+        <v>78.246130388381729</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2179,8 +2130,7 @@
         <v>125</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>57.636107109294755</v>
+        <v>84.672960265681411</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2203,8 +2153,7 @@
         <v>125</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>51.216829990219772</v>
+        <v>94.963617903124572</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2225,8 +2174,7 @@
         <v>130</v>
       </c>
       <c r="G50" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>38.678321537177489</v>
+        <v>38.402435326582761</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2249,8 +2197,7 @@
         <v>125</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>90.859138018057664</v>
+        <v>80.294200499619222</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2273,8 +2220,7 @@
         <v>125</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>21.68768322035325</v>
+        <v>41.618426446737288</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2297,8 +2243,7 @@
         <v>125</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43.921023187825469</v>
+        <v>95.045384121587759</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2321,8 +2266,7 @@
         <v>125</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>97.739923614212685</v>
+        <v>72.575521801289369</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2345,8 +2289,7 @@
         <v>128</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>48.570647359244958</v>
+        <v>66.567376714508342</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2369,11 +2312,36 @@
         <v>125</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>50.555515524199826</v>
+        <v>78.246130388381729</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="7">
+        <v>20050214</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="4">
+        <v>57.225528653339722</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Temp_Data_Storage/University_of_Gallifrey_columncorrected.xlsx
+++ b/Temp_Data_Storage/University_of_Gallifrey_columncorrected.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styler\Documents\CAIR 2025\Temp_Data_Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\_Data_Lake_Prototype\Projects\CAIR\2025\Temp_Data_Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C03CC4-622E-4FC3-9950-6967EA2C33D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D79D938-58A3-4A69-8F03-B8F34DC83D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="600" windowWidth="24420" windowHeight="18870" xr2:uid="{A266F1E6-BBDA-418F-BF5C-DF55D8CAE583}"/>
+    <workbookView xWindow="11385" yWindow="1665" windowWidth="27180" windowHeight="18870" xr2:uid="{A266F1E6-BBDA-418F-BF5C-DF55D8CAE583}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$114</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="371">
   <si>
     <t>Student_ID</t>
   </si>
@@ -86,9 +89,6 @@
     <t>Grant</t>
   </si>
   <si>
-    <t>Lightwood</t>
-  </si>
-  <si>
     <t>Isabelle</t>
   </si>
   <si>
@@ -425,9 +425,6 @@
     <t>Xenobotany Society</t>
   </si>
   <si>
-    <t>Cosmic Cartography Society</t>
-  </si>
-  <si>
     <t>TAW</t>
   </si>
   <si>
@@ -627,16 +624,552 @@
   </si>
   <si>
     <t>Hours_of_Participation</t>
+  </si>
+  <si>
+    <t>37049218D</t>
+  </si>
+  <si>
+    <t>Frodo</t>
+  </si>
+  <si>
+    <t>37049219D</t>
+  </si>
+  <si>
+    <t>Kat</t>
+  </si>
+  <si>
+    <t>57213908D</t>
+  </si>
+  <si>
+    <t>Geller</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>31298475A</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Eustace</t>
+  </si>
+  <si>
+    <t>20394857A</t>
+  </si>
+  <si>
+    <t>Bart</t>
+  </si>
+  <si>
+    <t>Jo-Jo</t>
+  </si>
+  <si>
+    <t>ABW</t>
+  </si>
+  <si>
+    <t>84139057B</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>82930476A</t>
+  </si>
+  <si>
+    <t>Snape</t>
+  </si>
+  <si>
+    <t>Severus</t>
+  </si>
+  <si>
+    <t>95620438C</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Hartwell</t>
+  </si>
+  <si>
+    <t>63507129D</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>39572081n</t>
+  </si>
+  <si>
+    <t>Barton</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>14927658D</t>
+  </si>
+  <si>
+    <t>Buffay</t>
+  </si>
+  <si>
+    <t>Phoebe</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>94051273B</t>
+  </si>
+  <si>
+    <t>Cassel</t>
+  </si>
+  <si>
+    <t>Cinder</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>67839104A</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Annabeth</t>
+  </si>
+  <si>
+    <t>62719384C</t>
+  </si>
+  <si>
+    <t>Darcy</t>
+  </si>
+  <si>
+    <t>Fitzwil;iam</t>
+  </si>
+  <si>
+    <t>68402739A</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>72038594B</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>21384975A</t>
+  </si>
+  <si>
+    <t>Elessar</t>
+  </si>
+  <si>
+    <t>28374659A</t>
+  </si>
+  <si>
+    <t>Fett</t>
+  </si>
+  <si>
+    <t>Boba</t>
+  </si>
+  <si>
+    <t>80247619C</t>
+  </si>
+  <si>
+    <t>Finch</t>
+  </si>
+  <si>
+    <t>Scout</t>
+  </si>
+  <si>
+    <t>15973084D</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>23487591A</t>
+  </si>
+  <si>
+    <t>Fray</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t>36028597D</t>
+  </si>
+  <si>
+    <t>Hannon</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>67410528b</t>
+  </si>
+  <si>
+    <t>Hofstadter</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
+    <t>L.</t>
+  </si>
+  <si>
+    <t>60847312D</t>
+  </si>
+  <si>
+    <t>Humbert</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>1926048D3</t>
+  </si>
+  <si>
+    <t>Jeffries</t>
+  </si>
+  <si>
+    <t>Carlie</t>
+  </si>
+  <si>
+    <t>10498237D</t>
+  </si>
+  <si>
+    <t>Karev</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>84371590B</t>
+  </si>
+  <si>
+    <r>
+      <t>Kenob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>í</t>
+    </r>
+  </si>
+  <si>
+    <t>Obi-Wan</t>
+  </si>
+  <si>
+    <t>329485720A</t>
+  </si>
+  <si>
+    <t>Kirk</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Tiberius</t>
+  </si>
+  <si>
+    <t>Lightwood 2</t>
+  </si>
+  <si>
+    <t>19283740C</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>59104723C</t>
+  </si>
+  <si>
+    <t>Mc Fly</t>
+  </si>
+  <si>
+    <t>Marty</t>
+  </si>
+  <si>
+    <t>Seamus</t>
+  </si>
+  <si>
+    <t>91826405C</t>
+  </si>
+  <si>
+    <t>McMurphy</t>
+  </si>
+  <si>
+    <t>Randall</t>
+  </si>
+  <si>
+    <t>18492037A</t>
+  </si>
+  <si>
+    <t>Mellark</t>
+  </si>
+  <si>
+    <t>Peeta</t>
+  </si>
+  <si>
+    <t>75920384A</t>
+  </si>
+  <si>
+    <t>Merlin</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>70219485A</t>
+  </si>
+  <si>
+    <t>Mulder</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>91720463C</t>
+  </si>
+  <si>
+    <t>Nope</t>
+  </si>
+  <si>
+    <t>Leslie</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>78530149B</t>
+  </si>
+  <si>
+    <t>Odinson</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>73620495D</t>
+  </si>
+  <si>
+    <t>of Rivia</t>
+  </si>
+  <si>
+    <t>Geralt</t>
+  </si>
+  <si>
+    <t>83291746B</t>
+  </si>
+  <si>
+    <t>Pevensie</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Eleanor</t>
+  </si>
+  <si>
+    <t>50192837C</t>
+  </si>
+  <si>
+    <t>Picard</t>
+  </si>
+  <si>
+    <t>Jean-Luc</t>
+  </si>
+  <si>
+    <t>91263840C</t>
+  </si>
+  <si>
+    <t>Potter</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>20847319A</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>4058192B</t>
+  </si>
+  <si>
+    <t>Princess</t>
+  </si>
+  <si>
+    <t>Xena</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>80451726B</t>
+  </si>
+  <si>
+    <t>Raskolnicoff</t>
+  </si>
+  <si>
+    <t>Rodion</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>40958273B</t>
+  </si>
+  <si>
+    <t>Romanoff</t>
+  </si>
+  <si>
+    <t>Natasha</t>
+  </si>
+  <si>
+    <t>Alianovna</t>
+  </si>
+  <si>
+    <t>48592073B</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>85610347C</t>
+  </si>
+  <si>
+    <t>Scudder</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>47192038B</t>
+  </si>
+  <si>
+    <t>Scully</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>86742039C</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>97014283D</t>
+  </si>
+  <si>
+    <t>Stark</t>
+  </si>
+  <si>
+    <t>Sansa</t>
+  </si>
+  <si>
+    <t>49850712B</t>
+  </si>
+  <si>
+    <t>Swan</t>
+  </si>
+  <si>
+    <t>"Bella"</t>
+  </si>
+  <si>
+    <t>32095847C</t>
+  </si>
+  <si>
+    <t>Tam</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Song</t>
+  </si>
+  <si>
+    <t>62518390A</t>
+  </si>
+  <si>
+    <t>Targaryen</t>
+  </si>
+  <si>
+    <t>Daenerys</t>
+  </si>
+  <si>
+    <t>Stormborn</t>
+  </si>
+  <si>
+    <t>50273918B</t>
+  </si>
+  <si>
+    <t>Torrance</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>51729384C</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Bilius</t>
+  </si>
+  <si>
+    <t>95820371D</t>
+  </si>
+  <si>
+    <t>Wyatt</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Cosmic Cartography Club</t>
+  </si>
+  <si>
+    <t>Cosmic Cartography</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,6 +1189,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -678,7 +1217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -687,19 +1226,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1040,18 +1596,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D6E2FC-E53B-4893-AB53-E91AEDAA2E83}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1063,8 +1619,8 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>195</v>
+      <c r="C1" t="s">
+        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1076,145 +1632,123 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
+      <c r="C2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="E2" s="3">
-        <v>20051007</v>
-      </c>
-      <c r="F2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="4">
-        <v>36.526291284984616</v>
+        <v>20040714</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>79</v>
+      <c r="A3" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="E3" s="3">
-        <v>20070813</v>
-      </c>
-      <c r="F3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="4">
-        <v>24.179195822537039</v>
+        <v>20040714</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="E4" s="3">
-        <v>20050625</v>
+        <v>20040723</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="4">
-        <v>39.360073774781348</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3">
-        <v>20050610</v>
+        <v>20040723</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="4">
-        <v>43.417078538940991</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
+      <c r="A6" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="E6" s="3">
-        <v>20030719</v>
-      </c>
-      <c r="F6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="4">
-        <v>102.72943558679275</v>
+        <v>20060929</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>71</v>
+      <c r="A7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="E7" s="3">
-        <v>20030723</v>
-      </c>
-      <c r="F7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="4">
-        <v>69.487629719431766</v>
+        <v>20061212</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1222,629 +1756,561 @@
         <v>139</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3">
-        <v>20020516</v>
+        <v>20031224</v>
       </c>
       <c r="F8" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="4">
-        <v>99.765885322765783</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E9" s="3">
-        <v>20050729</v>
+        <v>20031224</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="4">
-        <v>49.819280597391639</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3">
-        <v>20020301</v>
+        <v>20031219</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="4">
-        <v>81.585360025636689</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E11" s="3">
-        <v>20031224</v>
+        <v>20031219</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="4">
-        <v>43.554032668580135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>184</v>
+      <c r="A12" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="3">
-        <v>20040210</v>
-      </c>
-      <c r="F12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="4">
-        <v>62.237651425653219</v>
+        <v>20021017</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>44</v>
+      <c r="A13" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E13" s="3">
-        <v>20041003</v>
-      </c>
-      <c r="F13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="4">
-        <v>10.37942533707982</v>
+        <v>20070704</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
+      <c r="A14" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="E14" s="3">
-        <v>20070304</v>
-      </c>
-      <c r="F14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="4">
-        <v>79.873820299883022</v>
+        <v>20020414</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>34</v>
+      <c r="A15" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="E15" s="3">
-        <v>20030904</v>
-      </c>
-      <c r="F15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="4">
-        <v>34.689623426382965</v>
+        <v>20020414</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="3">
         <v>20050214</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="4">
-        <v>57.225528653339722</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E17" s="3">
-        <v>20050720</v>
+        <v>20050214</v>
       </c>
       <c r="F17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20060510</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="4">
-        <v>91.473138338911596</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="3">
-        <v>20030121</v>
-      </c>
-      <c r="F18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="4">
-        <v>42.388542089181314</v>
-      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>55</v>
+      <c r="A19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="E19" s="3">
-        <v>20020720</v>
-      </c>
-      <c r="F19" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="4">
-        <v>19.575708577532072</v>
+        <v>20060511</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E20" s="3">
-        <v>20071230</v>
+        <v>20070813</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="4">
-        <v>63.6721508820848</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E21" s="3">
-        <v>20041217</v>
+        <v>20070811</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="4">
-        <v>42.48428499530651</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="D22" s="3" t="s">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c r="E22" s="3">
-        <v>20030609</v>
+        <v>20071226</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="4">
-        <v>94.259071657136957</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>116</v>
+      <c r="A23" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="E23" s="3">
-        <v>20040126</v>
-      </c>
-      <c r="F23" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="4">
-        <v>69.012559104479948</v>
+        <v>20070126</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="E24" s="3">
-        <v>20031219</v>
+        <v>20020525</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="4">
-        <v>105.2815353027797</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>37</v>
+      <c r="A25" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="E25" s="3">
-        <v>20020525</v>
-      </c>
-      <c r="F25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="4">
-        <v>90.506283218669196</v>
+        <v>20060113</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" s="3">
         <v>20060109</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="4">
-        <v>51.669194533237111</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E27" s="3">
-        <v>20060505</v>
+        <v>20040912</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="4">
-        <v>41.815150320804307</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E28" s="3">
-        <v>20030707</v>
+        <v>20030723</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="4">
-        <v>96.547663316734358</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="3">
-        <v>20060708</v>
-      </c>
-      <c r="F29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29" s="4">
-        <v>62.571773528455367</v>
+      <c r="A29" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" s="7">
+        <v>38552</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29">
+        <v>46.5</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>39</v>
+      <c r="A30" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="E30" s="3">
-        <v>20050801</v>
-      </c>
-      <c r="F30" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="4">
-        <v>95.797338027575776</v>
+        <v>20030501</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>8</v>
+      <c r="A31" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="E31" s="3">
-        <v>20060811</v>
-      </c>
-      <c r="F31" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" s="4">
-        <v>64.94070155546126</v>
+        <v>20060605</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31">
+        <v>102.5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="E32" s="3">
-        <v>20020205</v>
+        <v>20060505</v>
       </c>
       <c r="F32" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="4">
-        <v>86.817319701651627</v>
+        <v>369</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E33" s="3">
-        <v>20071126</v>
-      </c>
-      <c r="F33" t="s">
-        <v>125</v>
-      </c>
-      <c r="G33" s="4">
-        <v>14.795974537824165</v>
+        <v>20030524</v>
+      </c>
+      <c r="G33">
+        <v>109.5</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>118</v>
+      <c r="A34" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="E34" s="3">
-        <v>20071226</v>
-      </c>
-      <c r="F34" t="s">
-        <v>125</v>
-      </c>
-      <c r="G34" s="4">
-        <v>48.101441636464649</v>
+        <v>20070407</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34">
+        <v>94.5</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>76</v>
+      <c r="A35" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E35" s="3">
-        <v>20070504</v>
-      </c>
-      <c r="F35" t="s">
-        <v>125</v>
-      </c>
-      <c r="G35" s="4">
-        <v>27.209043743957409</v>
+        <v>20051019</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35">
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1852,496 +2318,1682 @@
         <v>165</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E36" s="3">
-        <v>20021117</v>
+        <v>20040322</v>
       </c>
       <c r="F36" t="s">
-        <v>125</v>
-      </c>
-      <c r="G36" s="4">
-        <v>35.403578062501012</v>
+        <v>124</v>
+      </c>
+      <c r="G36">
+        <v>44.5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>80</v>
+      <c r="A37" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="E37" s="3">
-        <v>20040912</v>
-      </c>
-      <c r="F37" t="s">
-        <v>125</v>
-      </c>
-      <c r="G37" s="4">
-        <v>94.736320241324307</v>
+        <v>10031029</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37">
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E38" s="3">
-        <v>20040322</v>
+        <v>2007034</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
-      </c>
-      <c r="G38" s="4">
-        <v>88.001058279722784</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E39" s="3">
-        <v>20070425</v>
+        <v>20050814</v>
       </c>
       <c r="F39" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="4">
-        <v>60.760607055120779</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>103</v>
+      <c r="A40" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="E40" s="3">
-        <v>20030524</v>
-      </c>
-      <c r="G40" s="4">
-        <v>108.20848935445134</v>
+        <v>20060719</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="D41" s="3" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E41" s="3">
-        <v>20070811</v>
+        <v>20020108</v>
       </c>
       <c r="F41" t="s">
-        <v>125</v>
-      </c>
-      <c r="G41" s="4">
-        <v>22.20900534113165</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>13</v>
+      <c r="A42" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E42" s="3">
+        <v>20070230</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E43" s="3">
+        <v>20060812</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E44" s="3">
         <v>20070401</v>
       </c>
-      <c r="F42" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="4">
-        <v>83.138197050459496</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" s="3">
-        <v>20021203</v>
-      </c>
-      <c r="F43" t="s">
-        <v>125</v>
-      </c>
-      <c r="G43" s="4">
-        <v>78.139453279590938</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="3">
-        <v>20070604</v>
-      </c>
-      <c r="F44" t="s">
-        <v>125</v>
-      </c>
-      <c r="G44" s="4">
-        <v>76.463483691835563</v>
+      <c r="F44" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3" t="s">
-        <v>190</v>
+      <c r="A45" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="E45" s="3">
-        <v>20050106</v>
-      </c>
-      <c r="F45" t="s">
-        <v>125</v>
-      </c>
-      <c r="G45" s="4">
-        <v>10.833867142804824</v>
+        <v>20021229</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="D46" s="3" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E46" s="3">
-        <v>20030613</v>
+        <v>20030121</v>
       </c>
       <c r="F46" t="s">
         <v>125</v>
       </c>
-      <c r="G46" s="4">
-        <v>24.059431147423929</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="7">
-        <v>20040723</v>
-      </c>
-      <c r="F47" s="5" t="s">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="3">
+        <v>20030609</v>
+      </c>
+      <c r="F47" t="s">
         <v>125</v>
       </c>
-      <c r="G47" s="4">
-        <v>78.246130388381729</v>
-      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>97</v>
+      <c r="A48" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="E48" s="3">
-        <v>20050814</v>
-      </c>
-      <c r="F48" t="s">
-        <v>125</v>
-      </c>
-      <c r="G48" s="4">
-        <v>84.672960265681411</v>
+        <v>20020727</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>29</v>
+      <c r="A49" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="E49" s="3">
-        <v>20021231</v>
+        <v>20071211</v>
       </c>
       <c r="F49" t="s">
-        <v>125</v>
-      </c>
-      <c r="G49" s="4">
-        <v>94.963617903124572</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="E50" s="3">
-        <v>20020214</v>
+        <v>20030613</v>
       </c>
       <c r="F50" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" s="4">
-        <v>38.402435326582761</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>99</v>
+      <c r="A51" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="E51" s="3">
-        <v>20020108</v>
-      </c>
-      <c r="F51" t="s">
-        <v>125</v>
-      </c>
-      <c r="G51" s="4">
-        <v>80.294200499619222</v>
+        <v>20040626</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>66</v>
+      <c r="A52" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="E52" s="3">
-        <v>20030806</v>
-      </c>
-      <c r="F52" t="s">
-        <v>125</v>
-      </c>
-      <c r="G52" s="4">
-        <v>41.618426446737288</v>
+        <v>20070205</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="3">
+        <v>20060708</v>
+      </c>
+      <c r="F53" t="s">
+        <v>369</v>
+      </c>
+      <c r="G53">
         <v>122</v>
-      </c>
-      <c r="E53" s="3">
-        <v>20060217</v>
-      </c>
-      <c r="F53" t="s">
-        <v>125</v>
-      </c>
-      <c r="G53" s="4">
-        <v>95.045384121587759</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="E54" s="3">
-        <v>20031224</v>
+        <v>20040126</v>
       </c>
       <c r="F54" t="s">
         <v>125</v>
       </c>
-      <c r="G54" s="4">
-        <v>72.575521801289369</v>
+      <c r="G54">
+        <v>48.5</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="3">
+        <v>20070604</v>
+      </c>
+      <c r="F55" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55">
+        <v>140.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E56" s="3">
+        <v>20020620</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E57" s="3">
+        <v>20020414</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G57">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="3">
+        <v>20030719</v>
+      </c>
+      <c r="F58" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E59" s="3">
+        <v>20071120</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G59">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="3">
-        <v>20031219</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="E60" s="3">
+        <v>20020214</v>
+      </c>
+      <c r="F60" t="s">
         <v>128</v>
       </c>
-      <c r="G55" s="4">
-        <v>66.567376714508342</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="G60">
+        <v>131.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" s="3">
+        <v>20020516</v>
+      </c>
+      <c r="F61" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" s="3">
+        <v>20030806</v>
+      </c>
+      <c r="F62" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E63" s="3">
+        <v>20051007</v>
+      </c>
+      <c r="F63" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="3">
+        <v>20050729</v>
+      </c>
+      <c r="F64" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E65" s="3">
+        <v>20021225</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G65">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E66" s="3">
+        <v>20070614</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G66">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E67" s="3">
+        <v>20071109</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G67">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E68" s="3">
+        <v>19960611</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G68">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E69" s="3">
+        <v>20030202</v>
+      </c>
+      <c r="F69" t="s">
+        <v>369</v>
+      </c>
+      <c r="G69">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" s="3">
+        <v>20021203</v>
+      </c>
+      <c r="F70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G70">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E71" s="3">
+        <v>20040513</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G71">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="3">
+        <v>20071126</v>
+      </c>
+      <c r="F72" t="s">
+        <v>124</v>
+      </c>
+      <c r="G72">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E73" s="3">
+        <v>20070230</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E74" s="3">
+        <v>20040302</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G74">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E75" s="3">
+        <v>20070304</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G75">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="3">
+        <v>20071230</v>
+      </c>
+      <c r="F76" t="s">
+        <v>125</v>
+      </c>
+      <c r="G76">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E77" s="3">
+        <v>20060713</v>
+      </c>
+      <c r="F77" t="s">
+        <v>369</v>
+      </c>
+      <c r="G77">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E78" s="3">
+        <v>20070126</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G78">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E79" s="3">
+        <v>20050720</v>
+      </c>
+      <c r="F79" t="s">
+        <v>125</v>
+      </c>
+      <c r="G79">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E80" s="3">
+        <v>20031008</v>
+      </c>
+      <c r="F80" t="s">
+        <v>369</v>
+      </c>
+      <c r="G80">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E81" s="3">
+        <v>20030315</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G81">
+        <v>146.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E82" s="3">
+        <v>20070504</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G82">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E83" s="3">
+        <v>20050625</v>
+      </c>
+      <c r="F83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G83">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" s="3">
+        <v>20030707</v>
+      </c>
+      <c r="F84" t="s">
+        <v>369</v>
+      </c>
+      <c r="G84">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" s="3">
+        <v>20021117</v>
+      </c>
+      <c r="F85" t="s">
+        <v>124</v>
+      </c>
+      <c r="G85">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E86" s="3">
+        <v>20050106</v>
+      </c>
+      <c r="F86" t="s">
+        <v>124</v>
+      </c>
+      <c r="G86">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E87" s="3">
+        <v>20060623</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G87">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="3">
+        <v>20070401</v>
+      </c>
+      <c r="F88" t="s">
+        <v>124</v>
+      </c>
+      <c r="G88">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E89" s="3">
+        <v>20060401</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G89">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E90" s="3">
+        <v>20070614</v>
+      </c>
+      <c r="F90" t="s">
+        <v>370</v>
+      </c>
+      <c r="G90">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="3">
+        <v>20041003</v>
+      </c>
+      <c r="F91" t="s">
+        <v>129</v>
+      </c>
+      <c r="G91">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E92" s="3">
+        <v>20040416</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G92">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E93" s="3">
+        <v>12052007</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G93">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94" s="3">
+        <v>20050610</v>
+      </c>
+      <c r="F94" t="s">
+        <v>126</v>
+      </c>
+      <c r="G94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" s="3">
+        <v>20030904</v>
+      </c>
+      <c r="F95" t="s">
+        <v>127</v>
+      </c>
+      <c r="G95">
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" s="3">
+        <v>20020720</v>
+      </c>
+      <c r="F96" t="s">
+        <v>125</v>
+      </c>
+      <c r="G96">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E97" s="3">
+        <v>20070425</v>
+      </c>
+      <c r="F97" t="s">
+        <v>124</v>
+      </c>
+      <c r="G97">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E98" s="3">
+        <v>20070504</v>
+      </c>
+      <c r="F98" t="s">
+        <v>124</v>
+      </c>
+      <c r="G98">
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" s="3">
+        <v>20020205</v>
+      </c>
+      <c r="F99" t="s">
+        <v>124</v>
+      </c>
+      <c r="G99">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E100" s="3">
+        <v>20070604</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G100">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3">
+        <v>20060811</v>
+      </c>
+      <c r="F101" t="s">
+        <v>369</v>
+      </c>
+      <c r="G101">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2007425</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G102">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" s="3">
+        <v>20020301</v>
+      </c>
+      <c r="F103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E104" s="3">
+        <v>20050515</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E105" s="3">
+        <v>20050905</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E106" s="3">
+        <v>20071120</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E107" s="3">
+        <v>20031008</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E108" s="3">
+        <v>20040210</v>
+      </c>
+      <c r="F108" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E109" s="3">
+        <v>20110217</v>
+      </c>
+      <c r="F109" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="3">
+        <v>20050801</v>
+      </c>
+      <c r="F110" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" s="3">
+        <v>20040803</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" s="3">
-        <v>20040723</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="B112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="3">
+        <v>20021231</v>
+      </c>
+      <c r="F112" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E113" s="3">
+        <v>20041216</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3">
+        <v>20041217</v>
+      </c>
+      <c r="F114" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="4">
-        <v>78.246130388381729</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" s="7">
-        <v>20050214</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G57" s="4">
-        <v>57.225528653339722</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>